--- a/docs/CodeSystem-nmdp-practitioner-role-cs.xlsx
+++ b/docs/CodeSystem-nmdp-practitioner-role-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:43:10-06:00</t>
+    <t>2023-03-28T10:23:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-nmdp-practitioner-role-cs.xlsx
+++ b/docs/CodeSystem-nmdp-practitioner-role-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T10:23:42-05:00</t>
+    <t>2023-04-06T10:47:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -144,10 +144,10 @@
     <t>Transplant Center Physician</t>
   </si>
   <si>
-    <t>tccoordinator</t>
-  </si>
-  <si>
-    <t>Transplant Center Coordinator</t>
+    <t>searchcoordinator</t>
+  </si>
+  <si>
+    <t>Search Coordinator</t>
   </si>
 </sst>
 </file>

--- a/docs/CodeSystem-nmdp-practitioner-role-cs.xlsx
+++ b/docs/CodeSystem-nmdp-practitioner-role-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T10:47:25-05:00</t>
+    <t>2023-05-09T13:12:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
